--- a/Code/Results/Cases/Case_8_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03578590051173</v>
+        <v>1.02711415358839</v>
       </c>
       <c r="D2">
-        <v>1.050527937661868</v>
+        <v>1.043032956942577</v>
       </c>
       <c r="E2">
-        <v>1.036623208284494</v>
+        <v>1.029440683173906</v>
       </c>
       <c r="F2">
-        <v>1.053396130339318</v>
+        <v>1.047474669731214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.065826390511138</v>
+        <v>1.060778661363709</v>
       </c>
       <c r="J2">
-        <v>1.056946516832395</v>
+        <v>1.048513061550395</v>
       </c>
       <c r="K2">
-        <v>1.06132551365517</v>
+        <v>1.053923642344719</v>
       </c>
       <c r="L2">
-        <v>1.047594855104249</v>
+        <v>1.040504551091418</v>
       </c>
       <c r="M2">
-        <v>1.064158510966685</v>
+        <v>1.058309975868743</v>
       </c>
       <c r="N2">
-        <v>1.058447502119757</v>
+        <v>1.03679743605056</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.059349308105147</v>
+        <v>1.054720687753306</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.054432496975806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049207529166809</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025839483378176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040385478954458</v>
+        <v>1.031053853721905</v>
       </c>
       <c r="D3">
-        <v>1.053714702656749</v>
+        <v>1.0456432529711</v>
       </c>
       <c r="E3">
-        <v>1.040419794449444</v>
+        <v>1.032615513282399</v>
       </c>
       <c r="F3">
-        <v>1.056532048333603</v>
+        <v>1.050158449930961</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.067407978081172</v>
+        <v>1.061964630185311</v>
       </c>
       <c r="J3">
-        <v>1.05983262779244</v>
+        <v>1.050732325940184</v>
       </c>
       <c r="K3">
-        <v>1.063703503152324</v>
+        <v>1.05572361964567</v>
       </c>
       <c r="L3">
-        <v>1.050560354008098</v>
+        <v>1.042847410847798</v>
       </c>
       <c r="M3">
-        <v>1.066489293038438</v>
+        <v>1.060187380338434</v>
       </c>
       <c r="N3">
-        <v>1.061337711688408</v>
+        <v>1.03804162636431</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.061193917009843</v>
+        <v>1.056206497491369</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.056111266373017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050477333382026</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026266338785737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043303187684819</v>
+        <v>1.033557806281468</v>
       </c>
       <c r="D4">
-        <v>1.055740030864335</v>
+        <v>1.047306057449243</v>
       </c>
       <c r="E4">
-        <v>1.042832373666102</v>
+        <v>1.034638384718193</v>
       </c>
       <c r="F4">
-        <v>1.058528093523068</v>
+        <v>1.051870518842442</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.068402184184891</v>
+        <v>1.062709590566075</v>
       </c>
       <c r="J4">
-        <v>1.061660508934299</v>
+        <v>1.052140382260315</v>
       </c>
       <c r="K4">
-        <v>1.065209233199479</v>
+        <v>1.0568651927269</v>
       </c>
       <c r="L4">
-        <v>1.052439937004382</v>
+        <v>1.044335983957724</v>
       </c>
       <c r="M4">
-        <v>1.067967951539759</v>
+        <v>1.061380763261041</v>
       </c>
       <c r="N4">
-        <v>1.063168188631148</v>
+        <v>1.038831021580931</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.062364142820614</v>
+        <v>1.057150959470692</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.057176778096697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05128546040114</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02653461867801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044523371520724</v>
+        <v>1.034604963808474</v>
       </c>
       <c r="D5">
-        <v>1.056590304560639</v>
+        <v>1.048004697800582</v>
       </c>
       <c r="E5">
-        <v>1.043844221412374</v>
+        <v>1.035486894785483</v>
       </c>
       <c r="F5">
-        <v>1.059365082063944</v>
+        <v>1.052588762463394</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.068817935759459</v>
+        <v>1.063020950759276</v>
       </c>
       <c r="J5">
-        <v>1.062426694755735</v>
+        <v>1.052730701706777</v>
       </c>
       <c r="K5">
-        <v>1.065841840925644</v>
+        <v>1.057345356574791</v>
       </c>
       <c r="L5">
-        <v>1.053228712769119</v>
+        <v>1.044960739145017</v>
       </c>
       <c r="M5">
-        <v>1.068588191470457</v>
+        <v>1.061881615798269</v>
       </c>
       <c r="N5">
-        <v>1.063935462524333</v>
+        <v>1.039161969564666</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.062855006668782</v>
+        <v>1.057547341683904</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.057631070358479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051632718039157</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02664835138095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044736121101718</v>
+        <v>1.034786282814509</v>
       </c>
       <c r="D6">
-        <v>1.056741523351136</v>
+        <v>1.048128607028841</v>
       </c>
       <c r="E6">
-        <v>1.044023043661058</v>
+        <v>1.035635537603463</v>
       </c>
       <c r="F6">
-        <v>1.059511903630857</v>
+        <v>1.052714145291437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.068892958603817</v>
+        <v>1.063077128107231</v>
       </c>
       <c r="J6">
-        <v>1.062563274183197</v>
+        <v>1.052835407797502</v>
       </c>
       <c r="K6">
-        <v>1.065956470001821</v>
+        <v>1.057432550975201</v>
       </c>
       <c r="L6">
-        <v>1.053370042168144</v>
+        <v>1.045071794760761</v>
       </c>
       <c r="M6">
-        <v>1.068698598594718</v>
+        <v>1.061970485697625</v>
       </c>
       <c r="N6">
-        <v>1.064072235910247</v>
+        <v>1.039220670357193</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.062942383896736</v>
+        <v>1.05761767463432</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05772066046457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051703825105132</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026670766626589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04334303293405</v>
+        <v>1.033621743310469</v>
       </c>
       <c r="D7">
-        <v>1.055775639575627</v>
+        <v>1.047360277104386</v>
       </c>
       <c r="E7">
-        <v>1.042871824347742</v>
+        <v>1.034702945894604</v>
       </c>
       <c r="F7">
-        <v>1.058557538172434</v>
+        <v>1.051915244779156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.068422960781898</v>
+        <v>1.062743602908928</v>
       </c>
       <c r="J7">
-        <v>1.061693735138165</v>
+        <v>1.052197031975656</v>
       </c>
       <c r="K7">
-        <v>1.06524167456608</v>
+        <v>1.056916007442648</v>
       </c>
       <c r="L7">
-        <v>1.052476121149372</v>
+        <v>1.044396961772984</v>
       </c>
       <c r="M7">
-        <v>1.067994305616919</v>
+        <v>1.061422207764742</v>
       </c>
       <c r="N7">
-        <v>1.063201462020035</v>
+        <v>1.038913985535018</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.0623849996971</v>
+        <v>1.057183759280578</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.057219366687514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051343140744828</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026558971223304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037383042669059</v>
+        <v>1.028581998470506</v>
       </c>
       <c r="D8">
-        <v>1.051643617748417</v>
+        <v>1.044027415347651</v>
       </c>
       <c r="E8">
-        <v>1.037949231890065</v>
+        <v>1.030655831661641</v>
       </c>
       <c r="F8">
-        <v>1.054486281127292</v>
+        <v>1.048472037391386</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.066386473120688</v>
+        <v>1.061257108020803</v>
       </c>
       <c r="J8">
-        <v>1.057959751740135</v>
+        <v>1.049392380560443</v>
       </c>
       <c r="K8">
-        <v>1.062166693946817</v>
+        <v>1.054642289307761</v>
       </c>
       <c r="L8">
-        <v>1.048638568664473</v>
+        <v>1.041435963984743</v>
       </c>
       <c r="M8">
-        <v>1.064975515985339</v>
+        <v>1.059033139389556</v>
       </c>
       <c r="N8">
-        <v>1.059462175937286</v>
+        <v>1.037445759997138</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.059995896182842</v>
+        <v>1.055293011972165</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.055049674180839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049740444835792</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026040948869937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,105 +873,123 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026370262956289</v>
+        <v>1.019207387515991</v>
       </c>
       <c r="D9">
-        <v>1.044028370685245</v>
+        <v>1.037833855869191</v>
       </c>
       <c r="E9">
-        <v>1.028877857708751</v>
+        <v>1.023133456316847</v>
       </c>
       <c r="F9">
-        <v>1.047016643372878</v>
+        <v>1.042120447149727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.062541305731751</v>
+        <v>1.058384864094737</v>
       </c>
       <c r="J9">
-        <v>1.051024992620022</v>
+        <v>1.044099650412181</v>
       </c>
       <c r="K9">
-        <v>1.056445338852059</v>
+        <v>1.050341542453306</v>
       </c>
       <c r="L9">
-        <v>1.041519163752006</v>
+        <v>1.035862036812557</v>
       </c>
       <c r="M9">
-        <v>1.059390334767051</v>
+        <v>1.054565210954132</v>
       </c>
       <c r="N9">
-        <v>1.052517568663794</v>
+        <v>1.034497498797813</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.055575702462688</v>
+        <v>1.051757008584178</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.051001331770369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046696218129686</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025008153456949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018804496652813</v>
+        <v>1.012938632891985</v>
       </c>
       <c r="D10">
-        <v>1.038855151935097</v>
+        <v>1.033767623211415</v>
       </c>
       <c r="E10">
-        <v>1.022709216670119</v>
+        <v>1.018202407709385</v>
       </c>
       <c r="F10">
-        <v>1.041998275359912</v>
+        <v>1.037978754439914</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.059890849391824</v>
+        <v>1.056491003473019</v>
       </c>
       <c r="J10">
-        <v>1.046291401142989</v>
+        <v>1.040648144100409</v>
       </c>
       <c r="K10">
-        <v>1.052556598190709</v>
+        <v>1.047552832420566</v>
       </c>
       <c r="L10">
-        <v>1.036680207418273</v>
+        <v>1.032250609631358</v>
       </c>
       <c r="M10">
-        <v>1.055648497065145</v>
+        <v>1.051694554757777</v>
       </c>
       <c r="N10">
-        <v>1.047777254943913</v>
+        <v>1.032791964934734</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052664911214731</v>
+        <v>1.049535865360107</v>
       </c>
       <c r="Q10">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04826834570787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044742726160283</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024387858241515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016426433942712</v>
+        <v>1.011003342331626</v>
       </c>
       <c r="D11">
-        <v>1.037491218982981</v>
+        <v>1.032773587228458</v>
       </c>
       <c r="E11">
-        <v>1.021066731930645</v>
+        <v>1.016933613375325</v>
       </c>
       <c r="F11">
-        <v>1.041003489524569</v>
+        <v>1.03728342247395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.059323838608217</v>
+        <v>1.056180311084633</v>
       </c>
       <c r="J11">
-        <v>1.045131468222647</v>
+        <v>1.039925427041541</v>
       </c>
       <c r="K11">
-        <v>1.051739124102862</v>
+        <v>1.047102822290212</v>
       </c>
       <c r="L11">
-        <v>1.035602003467363</v>
+        <v>1.031543099319133</v>
       </c>
       <c r="M11">
-        <v>1.055191462626952</v>
+        <v>1.051534889787058</v>
       </c>
       <c r="N11">
-        <v>1.046615674785778</v>
+        <v>1.032824890501677</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.052732374610309</v>
+        <v>1.049840072089477</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047722662288192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044460156957817</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02451680217929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015868880966979</v>
+        <v>1.010471487353411</v>
       </c>
       <c r="D12">
-        <v>1.037292941406405</v>
+        <v>1.032594883458677</v>
       </c>
       <c r="E12">
-        <v>1.020830876012668</v>
+        <v>1.016668955358135</v>
       </c>
       <c r="F12">
-        <v>1.04105615305358</v>
+        <v>1.037355238180823</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.059319215664316</v>
+        <v>1.056191843360308</v>
       </c>
       <c r="J12">
-        <v>1.045016501154863</v>
+        <v>1.039839192935119</v>
       </c>
       <c r="K12">
-        <v>1.051738923143895</v>
+        <v>1.047123171152929</v>
       </c>
       <c r="L12">
-        <v>1.035569582644866</v>
+        <v>1.031483623792754</v>
       </c>
       <c r="M12">
-        <v>1.055436899558622</v>
+        <v>1.051800135016321</v>
       </c>
       <c r="N12">
-        <v>1.046500544451571</v>
+        <v>1.032966970677012</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.053248075168898</v>
+        <v>1.05037238843052</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.047722520208159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044474543629967</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024661128694837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016709539340998</v>
+        <v>1.010991960290989</v>
       </c>
       <c r="D13">
-        <v>1.038012607908798</v>
+        <v>1.033047036991068</v>
       </c>
       <c r="E13">
-        <v>1.021695385774241</v>
+        <v>1.017167429892044</v>
       </c>
       <c r="F13">
-        <v>1.041954628001287</v>
+        <v>1.03804292373919</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05977347620629</v>
+        <v>1.056464853033448</v>
       </c>
       <c r="J13">
-        <v>1.04573307884914</v>
+        <v>1.040247349460401</v>
       </c>
       <c r="K13">
-        <v>1.052404351993351</v>
+        <v>1.047525357293728</v>
       </c>
       <c r="L13">
-        <v>1.036375734936113</v>
+        <v>1.031930002252783</v>
       </c>
       <c r="M13">
-        <v>1.056278401225562</v>
+        <v>1.052434142549785</v>
       </c>
       <c r="N13">
-        <v>1.047218139768366</v>
+        <v>1.033153621799694</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.054186440126256</v>
+        <v>1.051147428258415</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048190535542396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044756190274539</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024838808063644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017926800121021</v>
+        <v>1.011843486935071</v>
       </c>
       <c r="D14">
-        <v>1.038928804733542</v>
+        <v>1.033659349694296</v>
       </c>
       <c r="E14">
-        <v>1.02279348394589</v>
+        <v>1.017875539679622</v>
       </c>
       <c r="F14">
-        <v>1.042963094792015</v>
+        <v>1.038810297310793</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.060296589711627</v>
+        <v>1.056780372129733</v>
       </c>
       <c r="J14">
-        <v>1.046606979773702</v>
+        <v>1.040766692900629</v>
       </c>
       <c r="K14">
-        <v>1.053168173054501</v>
+        <v>1.047989415897398</v>
       </c>
       <c r="L14">
-        <v>1.037314403112173</v>
+        <v>1.032484580992521</v>
       </c>
       <c r="M14">
-        <v>1.057133824277199</v>
+        <v>1.053051692314223</v>
       </c>
       <c r="N14">
-        <v>1.048093281732479</v>
+        <v>1.033311151890879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.05503393936784</v>
+        <v>1.051807308316278</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.048731964376451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045085823137828</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024985602764395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018541787292899</v>
+        <v>1.01229704839005</v>
       </c>
       <c r="D15">
-        <v>1.039367748387928</v>
+        <v>1.03396471557912</v>
       </c>
       <c r="E15">
-        <v>1.023316239126975</v>
+        <v>1.018234339513627</v>
       </c>
       <c r="F15">
-        <v>1.04341381654732</v>
+        <v>1.039154599255615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.060534600058521</v>
+        <v>1.056926604839342</v>
       </c>
       <c r="J15">
-        <v>1.047016493141649</v>
+        <v>1.041019004508846</v>
       </c>
       <c r="K15">
-        <v>1.053515545097327</v>
+        <v>1.048204791993513</v>
       </c>
       <c r="L15">
-        <v>1.037741882781857</v>
+        <v>1.032750320461505</v>
       </c>
       <c r="M15">
-        <v>1.057493316359663</v>
+        <v>1.05330601291985</v>
       </c>
       <c r="N15">
-        <v>1.048503376656381</v>
+        <v>1.033373562892704</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.055355219210651</v>
+        <v>1.05204554341166</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.048983325434867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04524445079519</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025039342267542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021588077166848</v>
+        <v>1.014669679099215</v>
       </c>
       <c r="D16">
-        <v>1.041427419973675</v>
+        <v>1.035466644817837</v>
       </c>
       <c r="E16">
-        <v>1.025755916115089</v>
+        <v>1.020033079493038</v>
       </c>
       <c r="F16">
-        <v>1.045398221958472</v>
+        <v>1.040693253756451</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.061589289105587</v>
+        <v>1.057595993555067</v>
       </c>
       <c r="J16">
-        <v>1.04889647233757</v>
+        <v>1.042238157157289</v>
       </c>
       <c r="K16">
-        <v>1.055052312474299</v>
+        <v>1.049188875947243</v>
       </c>
       <c r="L16">
-        <v>1.039639846811343</v>
+        <v>1.034014167588292</v>
       </c>
       <c r="M16">
-        <v>1.058959061988401</v>
+        <v>1.054330057756787</v>
       </c>
       <c r="N16">
-        <v>1.050386025638396</v>
+        <v>1.03365851211574</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.056475473651078</v>
+        <v>1.052816570876606</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.050072941654104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045943631070655</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025211066098864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023292331986355</v>
+        <v>1.016067535326037</v>
       </c>
       <c r="D17">
-        <v>1.042531988384089</v>
+        <v>1.036314891017624</v>
       </c>
       <c r="E17">
-        <v>1.027059791113591</v>
+        <v>1.021065310980752</v>
       </c>
       <c r="F17">
-        <v>1.046390813859618</v>
+        <v>1.041480758976619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.062123991700803</v>
+        <v>1.057953184681879</v>
       </c>
       <c r="J17">
-        <v>1.049883937274197</v>
+        <v>1.042921963224265</v>
       </c>
       <c r="K17">
-        <v>1.055833225730789</v>
+        <v>1.049714801254238</v>
       </c>
       <c r="L17">
-        <v>1.040609435343412</v>
+        <v>1.034713802177556</v>
       </c>
       <c r="M17">
-        <v>1.059631560949736</v>
+        <v>1.054798574663872</v>
       </c>
       <c r="N17">
-        <v>1.051374892888498</v>
+        <v>1.033856899221449</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.056879565840459</v>
+        <v>1.053059055688511</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050627593562151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046318265311563</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025269597434165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023960432829733</v>
+        <v>1.016691904803338</v>
       </c>
       <c r="D18">
-        <v>1.042868915130392</v>
+        <v>1.036612487088193</v>
       </c>
       <c r="E18">
-        <v>1.027457327322932</v>
+        <v>1.021458572793347</v>
       </c>
       <c r="F18">
-        <v>1.04655669515106</v>
+        <v>1.041613749160272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.062229994852881</v>
+        <v>1.058031055511635</v>
       </c>
       <c r="J18">
-        <v>1.050147834465584</v>
+        <v>1.043138812531109</v>
       </c>
       <c r="K18">
-        <v>1.055986544844745</v>
+        <v>1.049827812847802</v>
       </c>
       <c r="L18">
-        <v>1.040818364765713</v>
+        <v>1.034916905556452</v>
       </c>
       <c r="M18">
-        <v>1.059617437353856</v>
+        <v>1.054750858414877</v>
       </c>
       <c r="N18">
-        <v>1.051639164844165</v>
+        <v>1.033897463980231</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.056633973183264</v>
+        <v>1.052786124440589</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050724575118402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046385570241239</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025201566255432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023707684551913</v>
+        <v>1.016604882136136</v>
       </c>
       <c r="D19">
-        <v>1.042530036894874</v>
+        <v>1.036409592061045</v>
       </c>
       <c r="E19">
-        <v>1.027058440670895</v>
+        <v>1.021266062838952</v>
       </c>
       <c r="F19">
-        <v>1.045982293918661</v>
+        <v>1.041144884022004</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.061960918271863</v>
+        <v>1.057854132164552</v>
       </c>
       <c r="J19">
-        <v>1.049774448122667</v>
+        <v>1.042923877606074</v>
       </c>
       <c r="K19">
-        <v>1.055592090167966</v>
+        <v>1.049566773917849</v>
       </c>
       <c r="L19">
-        <v>1.040363772651218</v>
+        <v>1.034664911185796</v>
       </c>
       <c r="M19">
-        <v>1.058991316025589</v>
+        <v>1.054228341318115</v>
       </c>
       <c r="N19">
-        <v>1.051265248249813</v>
+        <v>1.033754158202942</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.055818429111256</v>
+        <v>1.052051299943123</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050451968864865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046207939045096</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025022701262193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020838990917188</v>
+        <v>1.014507151588263</v>
       </c>
       <c r="D20">
-        <v>1.040266868116942</v>
+        <v>1.034789998472843</v>
       </c>
       <c r="E20">
-        <v>1.024388039334597</v>
+        <v>1.019418726776143</v>
       </c>
       <c r="F20">
-        <v>1.043354568030676</v>
+        <v>1.039024463568015</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.060627006873776</v>
+        <v>1.056959881361001</v>
       </c>
       <c r="J20">
-        <v>1.047589583528013</v>
+        <v>1.041490078001851</v>
       </c>
       <c r="K20">
-        <v>1.05363679195167</v>
+        <v>1.048247501216348</v>
       </c>
       <c r="L20">
-        <v>1.038015194296615</v>
+        <v>1.033128504305931</v>
       </c>
       <c r="M20">
-        <v>1.056675636213124</v>
+        <v>1.052414150544064</v>
       </c>
       <c r="N20">
-        <v>1.049077280896828</v>
+        <v>1.033071518409864</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.053467398214126</v>
+        <v>1.050094931753772</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.049073407748228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045279452904869</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024532845012144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014948141908359</v>
+        <v>1.010167374942706</v>
       </c>
       <c r="D21">
-        <v>1.036196232302126</v>
+        <v>1.032011520086029</v>
       </c>
       <c r="E21">
-        <v>1.019539447612958</v>
+        <v>1.016130667932429</v>
       </c>
       <c r="F21">
-        <v>1.039349821787391</v>
+        <v>1.036051608124083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.058492581354358</v>
+        <v>1.055711589999762</v>
       </c>
       <c r="J21">
-        <v>1.043833914553579</v>
+        <v>1.03924606832261</v>
       </c>
       <c r="K21">
-        <v>1.050522839951367</v>
+        <v>1.046410785473129</v>
       </c>
       <c r="L21">
-        <v>1.034159859624687</v>
+        <v>1.030812751202312</v>
       </c>
       <c r="M21">
-        <v>1.053622174337806</v>
+        <v>1.050380714167705</v>
       </c>
       <c r="N21">
-        <v>1.045316278441668</v>
+        <v>1.032612810880473</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.051010669380934</v>
+        <v>1.04844530328539</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.046874987193083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043984375630065</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024215573782725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011189478452391</v>
+        <v>1.007380034012627</v>
       </c>
       <c r="D22">
-        <v>1.033612310139713</v>
+        <v>1.030239893025846</v>
       </c>
       <c r="E22">
-        <v>1.016460371455753</v>
+        <v>1.014033581143624</v>
       </c>
       <c r="F22">
-        <v>1.036838378959664</v>
+        <v>1.034188773974911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.057131040661668</v>
+        <v>1.054904360824825</v>
       </c>
       <c r="J22">
-        <v>1.04144629107764</v>
+        <v>1.037799693018152</v>
       </c>
       <c r="K22">
-        <v>1.048546067875243</v>
+        <v>1.045235187320024</v>
       </c>
       <c r="L22">
-        <v>1.031712648866875</v>
+        <v>1.029332063817957</v>
       </c>
       <c r="M22">
-        <v>1.051713757495748</v>
+        <v>1.049112065209224</v>
       </c>
       <c r="N22">
-        <v>1.042925264266529</v>
+        <v>1.032269108188878</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.049500305489384</v>
+        <v>1.047441262924214</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.045464079621725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043138575369799</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024018655450416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013165073201038</v>
+        <v>1.008795268849056</v>
       </c>
       <c r="D23">
-        <v>1.034962171014502</v>
+        <v>1.031121964319742</v>
       </c>
       <c r="E23">
-        <v>1.018070220781047</v>
+        <v>1.015072540132889</v>
       </c>
       <c r="F23">
-        <v>1.038155287174751</v>
+        <v>1.035131744548461</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.057840853746191</v>
+        <v>1.055294920023349</v>
       </c>
       <c r="J23">
-        <v>1.042693187235963</v>
+        <v>1.038504619805545</v>
       </c>
       <c r="K23">
-        <v>1.049573909012503</v>
+        <v>1.045801973206281</v>
       </c>
       <c r="L23">
-        <v>1.032987280769538</v>
+        <v>1.030045168284365</v>
       </c>
       <c r="M23">
-        <v>1.052710756580572</v>
+        <v>1.049740483027755</v>
       </c>
       <c r="N23">
-        <v>1.044173931160418</v>
+        <v>1.032347665358351</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.050289353307292</v>
+        <v>1.047938608596656</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.046181297250936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043528856655634</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024089568183645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020803422258183</v>
+        <v>1.01449900068419</v>
       </c>
       <c r="D24">
-        <v>1.040206528729624</v>
+        <v>1.034751561277632</v>
       </c>
       <c r="E24">
-        <v>1.024321076066969</v>
+        <v>1.019386764049136</v>
       </c>
       <c r="F24">
-        <v>1.043271018264966</v>
+        <v>1.038958169836207</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.060578026708568</v>
+        <v>1.056925900838286</v>
       </c>
       <c r="J24">
-        <v>1.047523528010776</v>
+        <v>1.041450124793119</v>
       </c>
       <c r="K24">
-        <v>1.053562538717337</v>
+        <v>1.048194699308841</v>
       </c>
       <c r="L24">
-        <v>1.037934136479438</v>
+        <v>1.033081770182419</v>
       </c>
       <c r="M24">
-        <v>1.05657859305994</v>
+        <v>1.052334015464056</v>
       </c>
       <c r="N24">
-        <v>1.049011131573179</v>
+        <v>1.033041298029174</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.053350439455838</v>
+        <v>1.049991191892097</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.048993980624517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045212428090134</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024495694949127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029317002998652</v>
+        <v>1.021659721257096</v>
       </c>
       <c r="D25">
-        <v>1.046074635269334</v>
+        <v>1.039456846886762</v>
       </c>
       <c r="E25">
-        <v>1.031312537821249</v>
+        <v>1.025092439259395</v>
       </c>
       <c r="F25">
-        <v>1.04901180730862</v>
+        <v>1.043781119315567</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.063589645126533</v>
+        <v>1.059143236709369</v>
       </c>
       <c r="J25">
-        <v>1.052896469914149</v>
+        <v>1.045479507631401</v>
       </c>
       <c r="K25">
-        <v>1.057997456946441</v>
+        <v>1.051472037051721</v>
       </c>
       <c r="L25">
-        <v>1.04344346303809</v>
+        <v>1.037313326358982</v>
       </c>
       <c r="M25">
-        <v>1.060894103660133</v>
+        <v>1.055735785632918</v>
       </c>
       <c r="N25">
-        <v>1.05439170367034</v>
+        <v>1.035206100937713</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.056765809563626</v>
+        <v>1.052683425209935</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.05212677084162</v>
+        <v>1.04752647439553</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025280020041071</v>
       </c>
     </row>
   </sheetData>
